--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_2.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,26 +494,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Level of water stress</t>
+          <t>immigration_flow</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.005105715493230448</v>
+        <v>0.6644456659337185</v>
       </c>
       <c r="F2" t="n">
-        <v>1.793658833876618</v>
+        <v>7.245486319556736</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3778761538845226</v>
+        <v>0.8497234226526529</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02521664751222705</v>
+        <v>1.480630533739428e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002177678035469041</v>
+        <v>0.07655647524813022</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3778761538845226</v>
+        <v>0.8497234226526529</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -530,26 +530,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Global_Peace_Index_2023</t>
+          <t>Level of water stress</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.001029223265159207</v>
+        <v>0.003022186148034493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6455284963826098</v>
+        <v>0.5416329884019845</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3016664661318684</v>
+        <v>0.7198609220449782</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05526430005021637</v>
+        <v>1.597350357635685e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0005208726599002123</v>
+        <v>0.0005151469525341706</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3016664661318684</v>
+        <v>0.7198609220449782</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -566,26 +566,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Agricultural land (% )</t>
+          <t>Intentional homicides (per 100,000 people)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.01916164238327958</v>
+        <v>0.0118822181087302</v>
       </c>
       <c r="F4" t="n">
-        <v>23.46668790323391</v>
+        <v>1.764316543558925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2886595053549112</v>
+        <v>0.6177529947299834</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06719861886460236</v>
+        <v>7.691818350471598e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01017706201769688</v>
+        <v>0.002633018088220891</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2886595053549112</v>
+        <v>0.6177529947299834</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -602,26 +602,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Population, total</t>
+          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>940.759492759635</v>
+        <v>0.002876288454108225</v>
       </c>
       <c r="F5" t="n">
-        <v>755889.0979576657</v>
+        <v>1.846160190089836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2086544754572351</v>
+        <v>0.51850538586863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2363198373790542</v>
+        <v>0.0006092058736810305</v>
       </c>
       <c r="I5" t="n">
-        <v>779.4891478393203</v>
+        <v>0.0007694692214396217</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2086544754572351</v>
+        <v>0.51850538586863</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -638,26 +638,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>% of total population below 5 meters</t>
+          <t>Corruption index 2023</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.003181083252405778</v>
+        <v>0.01937554149846767</v>
       </c>
       <c r="F6" t="n">
-        <v>7.581257651092622</v>
+        <v>15.05337271659738</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2022211135085525</v>
+        <v>0.4230434937862196</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2368986415690645</v>
+        <v>0.00653356550244781</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002642059074113409</v>
+        <v>0.006732210004629848</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2022211135085525</v>
+        <v>0.4230434937862196</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -674,26 +674,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Control of Corruption: Estimate</t>
+          <t>Death rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.0005572665901045573</v>
+        <v>0.001373427495482246</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05833053573142132</v>
+        <v>6.430830524287911</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1993266694217983</v>
+        <v>0.4196744309110231</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2115093261280165</v>
+        <v>0.007021740074304434</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004386940255729558</v>
+        <v>0.0004818719674823779</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1993266694217983</v>
+        <v>0.4196744309110231</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -710,26 +710,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
+          <t>Cost of business start-up (% of GNI per capita)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.00248620461233171</v>
+        <v>0.005363983376085221</v>
       </c>
       <c r="F8" t="n">
-        <v>3.666741585603557</v>
+        <v>5.510986157728274</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1819506943240905</v>
+        <v>0.3580899884717129</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2611497402912928</v>
+        <v>0.02954381562380761</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002179619941012181</v>
+        <v>0.002364082185506698</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1819506943240905</v>
+        <v>0.3580899884717129</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -746,26 +746,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GDP growth (annual %)</t>
+          <t>clean fuels for cooking (% of population)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.001017085517608002</v>
+        <v>0.02549809649582798</v>
       </c>
       <c r="F9" t="n">
-        <v>1.840943442890117</v>
+        <v>44.83695320614665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1801880444422223</v>
+        <v>0.3252761774030954</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2723453790825713</v>
+        <v>0.04055401859500133</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009127742199643386</v>
+        <v>0.01202485704956725</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1801880444422223</v>
+        <v>0.3252761774030954</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -782,26 +782,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Government expenditure on education, total (% of GDP)</t>
+          <t>Human capital index (HCI) (scale 0-1)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.0009876513955697237</v>
+        <v>0.0001473616880896013</v>
       </c>
       <c r="F10" t="n">
-        <v>2.201052072331144</v>
+        <v>0.2377487485049056</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1753997108312618</v>
+        <v>0.2998950090238361</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2790001615652284</v>
+        <v>0.06009579273842088</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008992853976929211</v>
+        <v>7.604300602908255e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1753997108312618</v>
+        <v>0.2998950090238361</v>
       </c>
     </row>
     <row r="11">
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -818,26 +818,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>government  consumption exp (% of GDP)</t>
+          <t>Expenditure on primary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.005251620871921623</v>
+        <v>0.008474095513171891</v>
       </c>
       <c r="F11" t="n">
-        <v>10.98943191692473</v>
+        <v>9.846763998714035</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1689591378437124</v>
+        <v>0.2992969604381049</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3105562425046241</v>
+        <v>0.06063349002237176</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005105888009418973</v>
+        <v>0.004382485239451374</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1689591378437124</v>
+        <v>0.2992969604381049</v>
       </c>
     </row>
     <row r="12">
@@ -845,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -854,26 +854,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fertility rate, total (births per woman)</t>
+          <t>doing business score</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0006032781725323594</v>
+        <v>0.01420490634525492</v>
       </c>
       <c r="F12" t="n">
-        <v>2.193493930626972</v>
+        <v>33.06070919418165</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1658245196403969</v>
+        <v>0.2772058526889777</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3001303324586167</v>
+        <v>0.0833218594170423</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005744891930589309</v>
+        <v>0.007986968004678153</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1658245196403969</v>
+        <v>0.2772058526889777</v>
       </c>
     </row>
     <row r="13">
@@ -881,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -890,26 +890,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Industry (including construction), value added (% of GDP)</t>
+          <t>GDP per capita, PPP (constant 2021 international $)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.007049241848732355</v>
+        <v>4.7507850693128</v>
       </c>
       <c r="F13" t="n">
-        <v>18.50603009881895</v>
+        <v>10794.04884308854</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1635648794357461</v>
+        <v>0.264193070821483</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3068568249262028</v>
+        <v>0.1251236284016163</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006808187085920944</v>
+        <v>3.019087009874256</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1635648794357461</v>
+        <v>0.264193070821483</v>
       </c>
     </row>
     <row r="14">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -926,26 +926,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cost of business start-up (% of GNI per capita)</t>
+          <t>free</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.006588494809086104</v>
+        <v>0.0002198075917916069</v>
       </c>
       <c r="F14" t="n">
-        <v>9.424897094479578</v>
+        <v>0.5586305053002162</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1547808653980288</v>
+        <v>0.2477085344182279</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3673974200671919</v>
+        <v>0.1232930995820204</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007212136350136219</v>
+        <v>0.0001394631789562646</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1547808653980288</v>
+        <v>0.2477085344182279</v>
       </c>
     </row>
     <row r="15">
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -962,26 +962,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Population density</t>
+          <t>precipitation (mm per year)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.06037142773269708</v>
+        <v>0.5065646822855612</v>
       </c>
       <c r="F15" t="n">
-        <v>170.3816271134991</v>
+        <v>833.6105953502358</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1439113200159467</v>
+        <v>0.2474277876642026</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4023867423454833</v>
+        <v>0.1237324953252054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07119550706824393</v>
+        <v>0.3217928821482862</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1439113200159467</v>
+        <v>0.2474277876642026</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -998,26 +998,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Birth rate, crude (per 1,000 people)</t>
+          <t>Population growth (annual %)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.003399555587475416</v>
+        <v>-0.0004816804440925986</v>
       </c>
       <c r="F16" t="n">
-        <v>17.61969193667483</v>
+        <v>0.7832030394048015</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1418450967900066</v>
+        <v>-0.2417106105506485</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3763461642825691</v>
+        <v>0.1382199265297449</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003798935807951861</v>
+        <v>0.0003178997034879007</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1418450967900066</v>
+        <v>0.2417106105506485</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1034,26 +1034,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Current account balance (% of GDP)</t>
+          <t>Rural population (% of total population)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.002876331405651209</v>
+        <v>0.01166214334637919</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3048111928403599</v>
+        <v>34.02713786242921</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1150003937655601</v>
+        <v>0.2341727009974423</v>
       </c>
       <c r="H17" t="n">
-        <v>0.485721921047126</v>
+        <v>0.1458396582122484</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004084583539923553</v>
+        <v>0.007854231565582646</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1150003937655601</v>
+        <v>0.2341727009974423</v>
       </c>
     </row>
     <row r="18">
@@ -1061,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1070,26 +1070,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GDP per capita (constant 2015 US$)</t>
+          <t>Expenditure on secondary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-3.532581672407362</v>
+        <v>0.006310281678726582</v>
       </c>
       <c r="F18" t="n">
-        <v>11609.45571702861</v>
+        <v>12.41403826402831</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1069225223952442</v>
+        <v>0.189076682280271</v>
       </c>
       <c r="H18" t="n">
-        <v>0.528778845566711</v>
+        <v>0.2426121253226975</v>
       </c>
       <c r="I18" t="n">
-        <v>5.552546116189125</v>
+        <v>0.005316352877506492</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1069225223952442</v>
+        <v>0.189076682280271</v>
       </c>
     </row>
     <row r="19">
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1106,26 +1106,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Corruption index 2023</t>
+          <t>Population density</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.004036833471547889</v>
+        <v>0.04708361404077122</v>
       </c>
       <c r="F19" t="n">
-        <v>9.500652632444831</v>
+        <v>148.7619944873608</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1045363909386752</v>
+        <v>0.186232777197765</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5265192363935668</v>
+        <v>0.2840973212296707</v>
       </c>
       <c r="I19" t="n">
-        <v>0.006313736530116824</v>
+        <v>0.04324060461962976</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1045363909386752</v>
+        <v>0.186232777197765</v>
       </c>
     </row>
     <row r="20">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1142,26 +1142,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Life expectancy at birth, total (years)</t>
+          <t>Arable land (% of land area)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.001690155381145392</v>
+        <v>0.001174929958509431</v>
       </c>
       <c r="F20" t="n">
-        <v>72.24228941226656</v>
+        <v>3.294799800570351</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1003709668594987</v>
+        <v>0.180515689074862</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5661781022117848</v>
+        <v>0.2781248987776083</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002916505822157628</v>
+        <v>0.001066969431298694</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1003709668594987</v>
+        <v>0.180515689074862</v>
       </c>
     </row>
     <row r="21">
@@ -1169,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1178,26 +1178,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>doing business score</t>
+          <t>Lifetime risk of maternal death (%)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.006271388470862055</v>
+        <v>2.172677077226775e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>29.18579085332883</v>
+        <v>0.04317128746804342</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08630568555155017</v>
+        <v>0.1754201802205383</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5915862712191955</v>
+        <v>0.321036887042101</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0115922698063559</v>
+        <v>2.155527473930939e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08630568555155017</v>
+        <v>0.1754201802205383</v>
       </c>
     </row>
     <row r="22">
@@ -1205,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1214,26 +1214,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Total debt service (% of exports of goods, services and primary income)</t>
+          <t>Consumer price index (2010 = 100)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.0003224258542696837</v>
+        <v>0.0185568826316516</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5598193414244934</v>
+        <v>80.29585672565206</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08580483921822034</v>
+        <v>0.1645842444949461</v>
       </c>
       <c r="H22" t="n">
-        <v>0.629449982703658</v>
+        <v>0.3167125183158904</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000661817784799719</v>
+        <v>0.01828322006274076</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08580483921822034</v>
+        <v>0.1645842444949461</v>
       </c>
     </row>
     <row r="23">
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1250,26 +1250,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Time to start a business (days)</t>
+          <t>Educational attainment, at least completed primary, population 25+ years, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.008081542857125024</v>
+        <v>0.0111374816536391</v>
       </c>
       <c r="F23" t="n">
-        <v>13.51605870395679</v>
+        <v>63.06043516143759</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0820928786749818</v>
+        <v>0.1533317953160005</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6290750197149262</v>
+        <v>0.3448598565457742</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01658389014869683</v>
+        <v>0.01164385371085067</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0820928786749818</v>
+        <v>0.1533317953160005</v>
       </c>
     </row>
     <row r="24">
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1286,26 +1286,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Unemployment advanced education</t>
+          <t>Birth rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.0003473525284082711</v>
+        <v>-0.001889787839322161</v>
       </c>
       <c r="F24" t="n">
-        <v>1.147883260664502</v>
+        <v>16.78717511893804</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.08038192482967393</v>
+        <v>-0.1460818116915103</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6266544877784533</v>
+        <v>0.3684162494017157</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0007081146917027695</v>
+        <v>0.002076065481723043</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08038192482967393</v>
+        <v>0.1460818116915103</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1322,26 +1322,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Human Capital Index</t>
+          <t>Time to start a business (days)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-4.164630602640315e-05</v>
+        <v>0.002369753595581944</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1475289533003062</v>
+        <v>8.806483152346413</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.07964838184578345</v>
+        <v>0.1371108198558799</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6205900422664068</v>
+        <v>0.4183889105535892</v>
       </c>
       <c r="I25" t="n">
-        <v>8.346132685559931e-05</v>
+        <v>0.002893852215793112</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07964838184578345</v>
+        <v>0.1371108198558799</v>
       </c>
     </row>
     <row r="26">
@@ -1349,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1358,26 +1358,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Total debt service (% of GNI)</t>
+          <t>Educational attainment, at least Master's or equivalent, population 25+, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-3.18413331914156e-05</v>
+        <v>-0.0002516777158131187</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05992214259500038</v>
+        <v>0.7483589680635065</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.07942162871509237</v>
+        <v>-0.1295219004537188</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6656793603682118</v>
+        <v>0.4653469242433687</v>
       </c>
       <c r="I26" t="n">
-        <v>7.296553454040847e-05</v>
+        <v>0.0003406064116481495</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07942162871509237</v>
+        <v>0.1295219004537188</v>
       </c>
     </row>
     <row r="27">
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1394,26 +1394,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>clean fuels for cooking (% of population)</t>
+          <t>Inflation, consumer prices (annual %)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.009307649923199188</v>
+        <v>0.0002826017695017028</v>
       </c>
       <c r="F27" t="n">
-        <v>37.23780859803147</v>
+        <v>1.404929119322145</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07898658892472489</v>
+        <v>0.1154071720992315</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6235054823328217</v>
+        <v>0.4902171769433932</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01881028510957018</v>
+        <v>0.0004053958050555134</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07898658892472489</v>
+        <v>0.1154071720992315</v>
       </c>
     </row>
     <row r="28">
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1430,26 +1430,26 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Armed forces (% labor force)</t>
+          <t>GDP growth (annual %)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-3.111911017346722e-05</v>
+        <v>0.0002662111894458964</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02198035781407022</v>
+        <v>1.747457503476062</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06338336847516789</v>
+        <v>0.1037344900619699</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7303710177543308</v>
+        <v>0.541208187334828</v>
       </c>
       <c r="I28" t="n">
-        <v>8.945756886741943e-05</v>
+        <v>0.0004314393533521383</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06338336847516789</v>
+        <v>0.1037344900619699</v>
       </c>
     </row>
     <row r="29">
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1466,26 +1466,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Access to electricity (% of population)</t>
+          <t>Control of Corruption: Estimate</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.003961675129624919</v>
+        <v>0.000108807042228042</v>
       </c>
       <c r="F29" t="n">
-        <v>93.23922291120033</v>
+        <v>0.4321797833929912</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06258398865666487</v>
+        <v>0.1004112220860054</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7168980794555979</v>
+        <v>0.5430506966821134</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01083487684792654</v>
+        <v>0.0001772447620757253</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06258398865666487</v>
+        <v>0.1004112220860054</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1502,26 +1502,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Inflation, consumer prices (annual %)</t>
+          <t>GDP (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.000238113214616882</v>
+        <v>-359898.8416169159</v>
       </c>
       <c r="F30" t="n">
-        <v>1.250152512111118</v>
+        <v>2080411260.864031</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.06001493753986421</v>
+        <v>-0.09631467363687651</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7280691849795989</v>
+        <v>0.5763015139135724</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0006792054310920143</v>
+        <v>637859.1086502806</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06001493753986421</v>
+        <v>0.09631467363687651</v>
       </c>
     </row>
     <row r="31">
@@ -1529,7 +1529,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1538,26 +1538,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
+          <t>Population, total</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.000305361897126326</v>
+        <v>-41.02610278567718</v>
       </c>
       <c r="F31" t="n">
-        <v>1.195683385581491</v>
+        <v>243782.0060225083</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05963926838437374</v>
+        <v>-0.09555404915555427</v>
       </c>
       <c r="H31" t="n">
-        <v>0.722082539311949</v>
+        <v>0.5737256049746496</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0008518390638842801</v>
+        <v>72.24126794427552</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05963926838437374</v>
+        <v>0.09555404915555427</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1574,26 +1574,26 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+          <t>Access to electricity (% of population)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.0001185425370891966</v>
+        <v>0.0003782263779741637</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2992589771763442</v>
+        <v>98.33359261424792</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.05754127572422551</v>
+        <v>0.07584971836162735</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7465146513078487</v>
+        <v>0.6649704454388201</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0003635796568981005</v>
+        <v>0.000865541661238664</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05754127572422551</v>
+        <v>0.07584971836162735</v>
       </c>
     </row>
     <row r="33">
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1610,26 +1610,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unemployment basic education </t>
+          <t>Fertility rate, total (births per woman)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.000323976688469453</v>
+        <v>-0.0001481005777565835</v>
       </c>
       <c r="F33" t="n">
-        <v>2.176636932845111</v>
+        <v>1.988927249569518</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03913972212994656</v>
+        <v>-0.07098620231338887</v>
       </c>
       <c r="H33" t="n">
-        <v>0.812993913668266</v>
+        <v>0.6633667402308179</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001359759980085969</v>
+        <v>0.0003375934656117909</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03913972212994656</v>
+        <v>0.07098620231338887</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1646,26 +1646,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Consumer price index (2010 = 100)</t>
+          <t>Children out of school (% of primary school age)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.006124003702178064</v>
+        <v>-0.0004427385625285391</v>
       </c>
       <c r="F34" t="n">
-        <v>73.12607176734205</v>
+        <v>4.458243197878147</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02943711234788744</v>
+        <v>-0.05885494657321085</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8607349823447662</v>
+        <v>0.7255949731685363</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03465777992939591</v>
+        <v>0.001251582976383103</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02943711234788744</v>
+        <v>0.05885494657321085</v>
       </c>
     </row>
     <row r="35">
@@ -1673,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1682,26 +1682,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>precipitation (mm per year)</t>
+          <t>Arable land (hectares per person)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.08165865177609129</v>
+        <v>-3.207188410683343e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>783.0606042693146</v>
+        <v>0.03260758233730524</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02844297824127538</v>
+        <v>-0.05353849037906915</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8598797300077181</v>
+        <v>0.7529817102524897</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4595355229468867</v>
+        <v>1.011116068979657e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02844297824127538</v>
+        <v>0.05353849037906915</v>
       </c>
     </row>
     <row r="36">
@@ -1709,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1718,26 +1718,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Population growth (annual %)</t>
+          <t>Expenditure on tertiary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>7.985090750478186e-05</v>
+        <v>-0.0004447052443301638</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9802599776225961</v>
+        <v>2.36621074995358</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02328203676410771</v>
+        <v>-0.05269426718685885</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8866072984028677</v>
+        <v>0.7636961174057757</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0005562235211004882</v>
+        <v>0.001467060836209876</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02328203676410771</v>
+        <v>0.05269426718685885</v>
       </c>
     </row>
     <row r="37">
@@ -1745,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1754,26 +1754,26 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Death rate, crude (per 1,000 people)</t>
+          <t>Adolescents out of school (% of lower secondary school age)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.0001134333536142325</v>
+        <v>-0.000430960977603377</v>
       </c>
       <c r="F37" t="n">
-        <v>6.665937108346466</v>
+        <v>6.617589046926375</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02184163446814854</v>
+        <v>-0.04119512232832301</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8921804398099338</v>
+        <v>0.8007426048901871</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0008314185645005732</v>
+        <v>0.001695631720449537</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02184163446814854</v>
+        <v>0.04119512232832301</v>
       </c>
     </row>
     <row r="38">
@@ -1781,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1790,26 +1790,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Unemployment intermediate education</t>
+          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.0001527329495781491</v>
+        <v>-0.000642698077334333</v>
       </c>
       <c r="F38" t="n">
-        <v>2.185582718754731</v>
+        <v>3.144157165754255</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01886842287029145</v>
+        <v>-0.03122407563554503</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9092302408503899</v>
+        <v>0.8523713602354344</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001330512484692593</v>
+        <v>0.003428896297150368</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01886842287029145</v>
+        <v>0.03122407563554503</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1826,26 +1826,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Current health expenditure (% of GDP)</t>
+          <t>Agricultural land (% )</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-0.0001153249218912614</v>
+        <v>-0.0007681330371800779</v>
       </c>
       <c r="F39" t="n">
-        <v>4.181514284164302</v>
+        <v>18.67701467213497</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.009769419891817134</v>
+        <v>-0.02648650946201974</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9522915709580448</v>
+        <v>0.8728381426092635</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00191488134794159</v>
+        <v>0.004766048572894865</v>
       </c>
       <c r="J39" t="n">
-        <v>0.009769419891817134</v>
+        <v>0.02648650946201974</v>
       </c>
     </row>
     <row r="40">
@@ -1853,7 +1853,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1862,26 +1862,26 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GDP per capita, PPP (constant 2021 international $)</t>
+          <t>Life expectancy at birth, total (years)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.2369848429768273</v>
+        <v>-7.807750183250799e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>10229.00088328554</v>
+        <v>73.5200810832041</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.00718552607640402</v>
+        <v>-0.008586144103668694</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9663327491358951</v>
+        <v>0.961561999796649</v>
       </c>
       <c r="I40" t="n">
-        <v>5.574639226658453</v>
+        <v>0.001607447278999459</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00718552607640402</v>
+        <v>0.008586144103668694</v>
       </c>
     </row>
     <row r="41">
@@ -1889,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1898,26 +1898,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GNI per capita (2015 US$)</t>
+          <t>GDP per capita (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.134446642227929</v>
+        <v>-0.08289596797880458</v>
       </c>
       <c r="F41" t="n">
-        <v>6433.661539149738</v>
+        <v>11327.4266366573</v>
       </c>
       <c r="G41" t="n">
-        <v>0.005914113094881734</v>
+        <v>-0.004218446505602753</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9722873225805324</v>
+        <v>0.9802311027894709</v>
       </c>
       <c r="I41" t="n">
-        <v>3.842542836154235</v>
+        <v>3.321566674998919</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005914113094881734</v>
+        <v>0.004218446505602753</v>
       </c>
     </row>
     <row r="42">
@@ -1925,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Poverty $3.65 a day (% of population)</t>
+          <t>Population in urban agglomerations of more than 1 million (% of total population)</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Poverty $6.85 a day (% of population)</t>
+          <t>Population in the largest city (% of urban population)</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1997,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">%  Poverty headcount ratio </t>
+          <t>Armed forces (% labor force)</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2033,7 +2033,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Poverty $2.15 a day (% of population)</t>
+          <t>Children in employment, total (% of children ages 7-14)</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2069,7 +2069,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Population living in slums (% of urban population)</t>
+          <t>Agricultural irrigated land (% of total agricultural land)</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2105,7 +2105,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Central government debt, total (% of GDP)</t>
+          <t>Electric power consumption (kWh per capita)</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2177,7 +2177,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>% Firms using banks</t>
+          <t>Global_Peace_Index_2023</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2205,6 +2205,78 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Central government debt, total (% of GDP)</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>partly free</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
